--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2550.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2550.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.227429355164191</v>
+        <v>1.995575904846191</v>
       </c>
       <c r="B1">
-        <v>2.016472244243444</v>
+        <v>2.099128246307373</v>
       </c>
       <c r="C1">
-        <v>4.95943132099907</v>
+        <v>7.739345073699951</v>
       </c>
       <c r="D1">
-        <v>1.505444023773511</v>
+        <v>1.001798987388611</v>
       </c>
       <c r="E1">
-        <v>0.9213103493255331</v>
+        <v>0.5038214921951294</v>
       </c>
     </row>
   </sheetData>
